--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05110261464994238</v>
       </c>
       <c r="F2" t="n">
-        <v>292.7738730867086</v>
+        <v>289.3202873889254</v>
       </c>
       <c r="G2" t="n">
-        <v>12.59230034066664</v>
+        <v>6.755560187139269</v>
       </c>
       <c r="H2" t="n">
-        <v>568.876367025905</v>
+        <v>562.3507975863433</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5203518205762179</v>
+        <v>0.5116800344544622</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02217381798181297</v>
+        <v>0.01713649116353724</v>
       </c>
       <c r="K2" t="n">
-        <v>1.138268297227871</v>
+        <v>1.122755843714779</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2033489468648312</v>
+        <v>0.1961882789188312</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01014304986750427</v>
+        <v>0.006581945548015016</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4093835360545476</v>
+        <v>0.4034967452089521</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0007182774436394636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004802903710890719</v>
+        <v>0.004842899754225591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00186813263690811</v>
+        <v>0.001791255137212199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007775344474601554</v>
+        <v>0.007871934362300815</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004459925081290841</v>
+        <v>0.004494392975539166</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001733679942322697</v>
+        <v>0.001658810752945294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007216423501251172</v>
+        <v>0.007306749978235069</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004897358377775883</v>
+        <v>0.004939439022672729</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001951482433343308</v>
+        <v>0.001877944278049141</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007881359060364048</v>
+        <v>0.007979769487075555</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05182089209358184</v>
       </c>
       <c r="F4" t="n">
-        <v>292.7786759904196</v>
+        <v>289.3251302886796</v>
       </c>
       <c r="G4" t="n">
-        <v>12.59416847330355</v>
+        <v>6.75735144227648</v>
       </c>
       <c r="H4" t="n">
-        <v>568.8841423703795</v>
+        <v>562.3586695207057</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5248117456575087</v>
+        <v>0.5161744274300013</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02390749792413567</v>
+        <v>0.01879530191648253</v>
       </c>
       <c r="K4" t="n">
-        <v>1.145484720729122</v>
+        <v>1.130062593693014</v>
       </c>
       <c r="L4" t="n">
-        <v>0.208246305242607</v>
+        <v>0.2011277179415039</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01209453230084758</v>
+        <v>0.008459889826064156</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4172648951149117</v>
+        <v>0.4114765146960276</v>
       </c>
     </row>
   </sheetData>
